--- a/campaign_finance/data/_raw/prez.xlsx
+++ b/campaign_finance/data/_raw/prez.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16720" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1980" yWindow="3520" windowWidth="26240" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet4" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
     <sheet name="prez.csv" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId4"/>
+    <pivotCache cacheId="9" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -108,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -137,6 +137,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -146,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -154,8 +160,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="414">
+  <cellStyleXfs count="434">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -570,8 +587,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -580,8 +617,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="414">
+  <cellStyles count="434">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -791,6 +831,16 @@
     <cellStyle name="Followed Hyperlink" xfId="409" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="411" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="433" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
@@ -995,6 +1045,16 @@
     <cellStyle name="Hyperlink" xfId="408" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="410" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="416" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="418" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="420" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="422" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="424" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="426" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="428" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="430" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="432" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1003,7 +1063,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="StarTribune StarTribune" refreshedDate="42617.300665625" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="64">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="StarTribune StarTribune" refreshedDate="42681.590403587965" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="64">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D65" sheet="prez.csv"/>
   </cacheSource>
@@ -1017,10 +1077,27 @@
       </sharedItems>
     </cacheField>
     <cacheField name="total" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1365" maxValue="1881977"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2561" maxValue="2712505"/>
     </cacheField>
     <cacheField name="where" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="550" maxValue="567"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="550" maxValue="567" count="16">
+        <n v="550"/>
+        <n v="551"/>
+        <n v="553"/>
+        <n v="554"/>
+        <n v="556"/>
+        <n v="557"/>
+        <n v="558"/>
+        <n v="559"/>
+        <n v="560"/>
+        <n v="561"/>
+        <n v="562"/>
+        <n v="563"/>
+        <n v="564"/>
+        <n v="565"/>
+        <n v="566"/>
+        <n v="567"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="region" numFmtId="0">
       <sharedItems count="7">
@@ -1046,393 +1123,393 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="64">
   <r>
     <x v="0"/>
-    <n v="136502"/>
-    <n v="550"/>
+    <n v="239720"/>
     <x v="0"/>
-  </r>
-  <r>
     <x v="0"/>
-    <n v="546426"/>
-    <n v="551"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="952345"/>
     <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="0"/>
-    <n v="446339"/>
-    <n v="553"/>
+    <n v="693620"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="0"/>
-    <n v="1291140"/>
-    <n v="554"/>
+    <n v="2122137"/>
+    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
     <x v="0"/>
-    <n v="9079"/>
-    <n v="556"/>
+    <n v="14589"/>
+    <x v="4"/>
     <x v="2"/>
   </r>
   <r>
     <x v="0"/>
-    <n v="16394"/>
-    <n v="557"/>
+    <n v="33821"/>
+    <x v="5"/>
     <x v="2"/>
   </r>
   <r>
     <x v="0"/>
-    <n v="28439"/>
-    <n v="558"/>
+    <n v="49554"/>
+    <x v="6"/>
     <x v="3"/>
   </r>
   <r>
     <x v="0"/>
-    <n v="74605"/>
-    <n v="559"/>
+    <n v="143735"/>
+    <x v="7"/>
     <x v="4"/>
   </r>
   <r>
     <x v="0"/>
-    <n v="24461"/>
-    <n v="560"/>
+    <n v="42628"/>
+    <x v="8"/>
     <x v="4"/>
   </r>
   <r>
     <x v="0"/>
-    <n v="3886"/>
-    <n v="561"/>
+    <n v="6265"/>
+    <x v="9"/>
     <x v="4"/>
   </r>
   <r>
     <x v="0"/>
-    <n v="17057"/>
-    <n v="562"/>
+    <n v="24897"/>
+    <x v="10"/>
     <x v="4"/>
   </r>
   <r>
     <x v="0"/>
+    <n v="47662"/>
+    <x v="11"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="13883"/>
+    <x v="12"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="54434"/>
+    <x v="13"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="17039"/>
+    <x v="14"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="10660"/>
+    <x v="15"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="77226"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="133534"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="302396"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="168742"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2561"/>
+    <x v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="17598"/>
+    <x v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="13069"/>
+    <x v="6"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="65029"/>
+    <x v="7"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="31818"/>
+    <x v="8"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="9039"/>
+    <x v="9"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="18373"/>
+    <x v="10"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="51319"/>
+    <x v="11"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="33112"/>
+    <x v="12"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="15760"/>
+    <x v="13"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="7845"/>
+    <x v="14"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="7916"/>
+    <x v="15"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="352108"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1278659"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="887768"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2712505"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="25480"/>
-    <n v="563"/>
+    <x v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="70073"/>
     <x v="5"/>
-  </r>
-  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="99752"/>
+    <x v="6"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="230089"/>
+    <x v="7"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="71258"/>
+    <x v="8"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="11265"/>
+    <x v="9"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="38084"/>
+    <x v="10"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="81983"/>
+    <x v="11"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="33622"/>
+    <x v="12"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="74543"/>
+    <x v="13"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="13861"/>
+    <x v="14"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="19623"/>
+    <x v="15"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="229997"/>
     <x v="0"/>
-    <n v="4637"/>
-    <n v="564"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="427722"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="819183"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="629440"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="6276"/>
+    <x v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="36883"/>
     <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="27870"/>
-    <n v="565"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="46169"/>
     <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="8607"/>
-    <n v="566"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="169283"/>
+    <x v="7"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="81472"/>
+    <x v="8"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="24102"/>
+    <x v="9"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="59897"/>
+    <x v="10"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="105916"/>
+    <x v="11"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="67957"/>
+    <x v="12"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="59174"/>
+    <x v="13"/>
     <x v="6"/>
   </r>
   <r>
-    <x v="0"/>
-    <n v="7347"/>
-    <n v="567"/>
+    <x v="3"/>
+    <n v="19431"/>
+    <x v="14"/>
     <x v="6"/>
   </r>
   <r>
-    <x v="1"/>
-    <n v="35866"/>
-    <n v="550"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="48985"/>
-    <n v="551"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="104924"/>
-    <n v="553"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="63341"/>
-    <n v="554"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1365"/>
-    <n v="556"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="7884"/>
-    <n v="557"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="6159"/>
-    <n v="558"/>
     <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="18232"/>
-    <n v="559"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="10831"/>
-    <n v="560"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="5562"/>
-    <n v="561"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="10108"/>
-    <n v="562"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="19484"/>
-    <n v="563"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="16107"/>
-    <n v="564"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="7107"/>
-    <n v="565"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="3554"/>
-    <n v="566"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="2555"/>
-    <n v="567"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="248840"/>
-    <n v="550"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="872611"/>
-    <n v="551"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="640463"/>
-    <n v="553"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1881977"/>
-    <n v="554"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="19969"/>
-    <n v="556"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="52648"/>
-    <n v="557"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="78452"/>
-    <n v="558"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="160959"/>
-    <n v="559"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="53091"/>
-    <n v="560"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="8885"/>
-    <n v="561"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="30244"/>
-    <n v="562"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="59800"/>
-    <n v="563"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="24376"/>
-    <n v="564"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="47975"/>
-    <n v="565"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="25429"/>
-    <n v="566"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="16400"/>
-    <n v="567"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="192852"/>
-    <n v="550"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="342623"/>
-    <n v="551"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="621711"/>
-    <n v="553"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="523938"/>
-    <n v="554"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="5080"/>
-    <n v="556"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="27169"/>
-    <n v="557"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="39259"/>
-    <n v="558"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="122496"/>
-    <n v="559"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="60485"/>
-    <n v="560"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="20625"/>
-    <n v="561"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="51632"/>
-    <n v="562"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="74081"/>
-    <n v="563"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="50852"/>
-    <n v="564"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="50522"/>
-    <n v="565"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="15140"/>
-    <n v="566"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="18366"/>
-    <n v="567"/>
+    <n v="23727"/>
+    <x v="15"/>
     <x v="6"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:I9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -1445,7 +1522,27 @@
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="17">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisCol" showAll="0">
       <items count="8">
         <item x="5"/>
@@ -1845,19 +1942,19 @@
   <dimension ref="A3:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="A4:I9"/>
+      <selection activeCell="I5" sqref="I5:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" customWidth="1"/>
-    <col min="6" max="6" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9">
@@ -1902,28 +1999,28 @@
         <v>5</v>
       </c>
       <c r="B5" s="5">
-        <v>30117</v>
+        <v>61545</v>
       </c>
       <c r="C5" s="5">
-        <v>1837566</v>
+        <v>3074482</v>
       </c>
       <c r="D5" s="5">
-        <v>28439</v>
+        <v>49554</v>
       </c>
       <c r="E5" s="5">
-        <v>25473</v>
+        <v>48410</v>
       </c>
       <c r="F5" s="5">
-        <v>43824</v>
+        <v>82133</v>
       </c>
       <c r="G5" s="5">
-        <v>120009</v>
+        <v>217525</v>
       </c>
       <c r="H5" s="5">
-        <v>582841</v>
+        <v>933340</v>
       </c>
       <c r="I5" s="5">
-        <v>2668269</v>
+        <v>4466989</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1931,28 +2028,28 @@
         <v>0</v>
       </c>
       <c r="B6" s="5">
-        <v>84176</v>
+        <v>115605</v>
       </c>
       <c r="C6" s="5">
-        <v>2754588</v>
+        <v>3991164</v>
       </c>
       <c r="D6" s="5">
-        <v>78452</v>
+        <v>99752</v>
       </c>
       <c r="E6" s="5">
-        <v>72617</v>
+        <v>95553</v>
       </c>
       <c r="F6" s="5">
-        <v>89804</v>
+        <v>108027</v>
       </c>
       <c r="G6" s="5">
-        <v>253179</v>
+        <v>350696</v>
       </c>
       <c r="H6" s="5">
-        <v>889303</v>
+        <v>1239876</v>
       </c>
       <c r="I6" s="5">
-        <v>4222119</v>
+        <v>6000673</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1960,28 +2057,28 @@
         <v>1</v>
       </c>
       <c r="B7" s="5">
-        <v>124933</v>
+        <v>173873</v>
       </c>
       <c r="C7" s="5">
-        <v>866561</v>
+        <v>1057162</v>
       </c>
       <c r="D7" s="5">
-        <v>39259</v>
+        <v>46169</v>
       </c>
       <c r="E7" s="5">
-        <v>32249</v>
+        <v>43159</v>
       </c>
       <c r="F7" s="5">
-        <v>84028</v>
+        <v>102332</v>
       </c>
       <c r="G7" s="5">
-        <v>255238</v>
+        <v>334754</v>
       </c>
       <c r="H7" s="5">
-        <v>814563</v>
+        <v>1049180</v>
       </c>
       <c r="I7" s="5">
-        <v>2216831</v>
+        <v>2806629</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1989,28 +2086,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>35591</v>
+        <v>84431</v>
       </c>
       <c r="C8" s="5">
-        <v>112326</v>
+        <v>302276</v>
       </c>
       <c r="D8" s="5">
-        <v>6159</v>
+        <v>13069</v>
       </c>
       <c r="E8" s="5">
-        <v>9249</v>
+        <v>20159</v>
       </c>
       <c r="F8" s="5">
-        <v>13216</v>
+        <v>31521</v>
       </c>
       <c r="G8" s="5">
-        <v>44733</v>
+        <v>124259</v>
       </c>
       <c r="H8" s="5">
-        <v>140790</v>
+        <v>379622</v>
       </c>
       <c r="I8" s="5">
-        <v>362064</v>
+        <v>955337</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2018,28 +2115,28 @@
         <v>15</v>
       </c>
       <c r="B9" s="5">
-        <v>274817</v>
+        <v>435454</v>
       </c>
       <c r="C9" s="5">
-        <v>5571041</v>
+        <v>8425084</v>
       </c>
       <c r="D9" s="5">
-        <v>152309</v>
+        <v>208544</v>
       </c>
       <c r="E9" s="5">
-        <v>139588</v>
+        <v>207281</v>
       </c>
       <c r="F9" s="5">
-        <v>230872</v>
+        <v>324013</v>
       </c>
       <c r="G9" s="5">
-        <v>673159</v>
+        <v>1027234</v>
       </c>
       <c r="H9" s="5">
-        <v>2427497</v>
+        <v>3602018</v>
       </c>
       <c r="I9" s="5">
-        <v>9469283</v>
+        <v>14229628</v>
       </c>
     </row>
   </sheetData>
@@ -2058,7 +2155,7 @@
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B11" sqref="A1:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2087,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>136502</v>
+        <v>239720</v>
       </c>
       <c r="C2">
         <v>550</v>
@@ -2101,7 +2198,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>546426</v>
+        <v>952345</v>
       </c>
       <c r="C3">
         <v>551</v>
@@ -2115,7 +2212,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>446339</v>
+        <v>693620</v>
       </c>
       <c r="C4">
         <v>553</v>
@@ -2129,7 +2226,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1291140</v>
+        <v>2122137</v>
       </c>
       <c r="C5">
         <v>554</v>
@@ -2143,7 +2240,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>9079</v>
+        <v>14589</v>
       </c>
       <c r="C6">
         <v>556</v>
@@ -2157,7 +2254,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16394</v>
+        <v>33821</v>
       </c>
       <c r="C7">
         <v>557</v>
@@ -2171,7 +2268,7 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>28439</v>
+        <v>49554</v>
       </c>
       <c r="C8">
         <v>558</v>
@@ -2185,7 +2282,7 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>74605</v>
+        <v>143735</v>
       </c>
       <c r="C9">
         <v>559</v>
@@ -2199,7 +2296,7 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>24461</v>
+        <v>42628</v>
       </c>
       <c r="C10">
         <v>560</v>
@@ -2213,7 +2310,7 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>3886</v>
+        <v>6265</v>
       </c>
       <c r="C11">
         <v>561</v>
@@ -2227,7 +2324,7 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>17057</v>
+        <v>24897</v>
       </c>
       <c r="C12">
         <v>562</v>
@@ -2241,7 +2338,7 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>25480</v>
+        <v>47662</v>
       </c>
       <c r="C13">
         <v>563</v>
@@ -2255,7 +2352,7 @@
         <v>5</v>
       </c>
       <c r="B14">
-        <v>4637</v>
+        <v>13883</v>
       </c>
       <c r="C14">
         <v>564</v>
@@ -2269,7 +2366,7 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>27870</v>
+        <v>54434</v>
       </c>
       <c r="C15">
         <v>565</v>
@@ -2283,7 +2380,7 @@
         <v>5</v>
       </c>
       <c r="B16">
-        <v>8607</v>
+        <v>17039</v>
       </c>
       <c r="C16">
         <v>566</v>
@@ -2296,8 +2393,8 @@
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B17">
-        <v>7347</v>
+      <c r="B17" s="7">
+        <v>10660</v>
       </c>
       <c r="C17">
         <v>567</v>
@@ -2310,8 +2407,8 @@
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="2">
-        <v>35866</v>
+      <c r="B18" s="8">
+        <v>77226</v>
       </c>
       <c r="C18">
         <v>550</v>
@@ -2324,8 +2421,8 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="2">
-        <v>48985</v>
+      <c r="B19" s="8">
+        <v>133534</v>
       </c>
       <c r="C19">
         <v>551</v>
@@ -2338,8 +2435,8 @@
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="2">
-        <v>104924</v>
+      <c r="B20" s="8">
+        <v>302396</v>
       </c>
       <c r="C20">
         <v>553</v>
@@ -2352,8 +2449,8 @@
       <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="1">
-        <v>63341</v>
+      <c r="B21" s="8">
+        <v>168742</v>
       </c>
       <c r="C21">
         <v>554</v>
@@ -2366,8 +2463,8 @@
       <c r="A22" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="1">
-        <v>1365</v>
+      <c r="B22" s="8">
+        <v>2561</v>
       </c>
       <c r="C22">
         <v>556</v>
@@ -2380,8 +2477,8 @@
       <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="1">
-        <v>7884</v>
+      <c r="B23" s="8">
+        <v>17598</v>
       </c>
       <c r="C23">
         <v>557</v>
@@ -2394,8 +2491,8 @@
       <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="1">
-        <v>6159</v>
+      <c r="B24" s="8">
+        <v>13069</v>
       </c>
       <c r="C24">
         <v>558</v>
@@ -2408,8 +2505,8 @@
       <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="1">
-        <v>18232</v>
+      <c r="B25" s="8">
+        <v>65029</v>
       </c>
       <c r="C25">
         <v>559</v>
@@ -2422,8 +2519,8 @@
       <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="1">
-        <v>10831</v>
+      <c r="B26" s="8">
+        <v>31818</v>
       </c>
       <c r="C26">
         <v>560</v>
@@ -2436,8 +2533,8 @@
       <c r="A27" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="1">
-        <v>5562</v>
+      <c r="B27" s="8">
+        <v>9039</v>
       </c>
       <c r="C27">
         <v>561</v>
@@ -2450,8 +2547,8 @@
       <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="1">
-        <v>10108</v>
+      <c r="B28" s="8">
+        <v>18373</v>
       </c>
       <c r="C28">
         <v>562</v>
@@ -2464,8 +2561,8 @@
       <c r="A29" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="1">
-        <v>19484</v>
+      <c r="B29" s="8">
+        <v>51319</v>
       </c>
       <c r="C29">
         <v>563</v>
@@ -2478,8 +2575,8 @@
       <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="1">
-        <v>16107</v>
+      <c r="B30" s="8">
+        <v>33112</v>
       </c>
       <c r="C30">
         <v>564</v>
@@ -2492,8 +2589,8 @@
       <c r="A31" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="1">
-        <v>7107</v>
+      <c r="B31" s="8">
+        <v>15760</v>
       </c>
       <c r="C31">
         <v>565</v>
@@ -2506,8 +2603,8 @@
       <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="1">
-        <v>3554</v>
+      <c r="B32" s="8">
+        <v>7845</v>
       </c>
       <c r="C32">
         <v>566</v>
@@ -2520,8 +2617,8 @@
       <c r="A33" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="1">
-        <v>2555</v>
+      <c r="B33" s="8">
+        <v>7916</v>
       </c>
       <c r="C33">
         <v>567</v>
@@ -2534,8 +2631,8 @@
       <c r="A34" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="1">
-        <v>248840</v>
+      <c r="B34" s="2">
+        <v>352108</v>
       </c>
       <c r="C34">
         <v>550</v>
@@ -2548,8 +2645,8 @@
       <c r="A35" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="1">
-        <v>872611</v>
+      <c r="B35" s="2">
+        <v>1278659</v>
       </c>
       <c r="C35">
         <v>551</v>
@@ -2562,8 +2659,8 @@
       <c r="A36" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="1">
-        <v>640463</v>
+      <c r="B36" s="2">
+        <v>887768</v>
       </c>
       <c r="C36">
         <v>553</v>
@@ -2576,8 +2673,8 @@
       <c r="A37" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="1">
-        <v>1881977</v>
+      <c r="B37" s="2">
+        <v>2712505</v>
       </c>
       <c r="C37">
         <v>554</v>
@@ -2590,8 +2687,8 @@
       <c r="A38" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="1">
-        <v>19969</v>
+      <c r="B38" s="2">
+        <v>25480</v>
       </c>
       <c r="C38">
         <v>556</v>
@@ -2604,8 +2701,8 @@
       <c r="A39" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="1">
-        <v>52648</v>
+      <c r="B39" s="2">
+        <v>70073</v>
       </c>
       <c r="C39">
         <v>557</v>
@@ -2618,8 +2715,8 @@
       <c r="A40" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="1">
-        <v>78452</v>
+      <c r="B40" s="2">
+        <v>99752</v>
       </c>
       <c r="C40">
         <v>558</v>
@@ -2632,8 +2729,8 @@
       <c r="A41" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="1">
-        <v>160959</v>
+      <c r="B41" s="2">
+        <v>230089</v>
       </c>
       <c r="C41">
         <v>559</v>
@@ -2646,8 +2743,8 @@
       <c r="A42" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="1">
-        <v>53091</v>
+      <c r="B42" s="2">
+        <v>71258</v>
       </c>
       <c r="C42">
         <v>560</v>
@@ -2660,8 +2757,8 @@
       <c r="A43" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="1">
-        <v>8885</v>
+      <c r="B43" s="2">
+        <v>11265</v>
       </c>
       <c r="C43">
         <v>561</v>
@@ -2674,8 +2771,8 @@
       <c r="A44" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="1">
-        <v>30244</v>
+      <c r="B44" s="2">
+        <v>38084</v>
       </c>
       <c r="C44">
         <v>562</v>
@@ -2688,8 +2785,8 @@
       <c r="A45" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="1">
-        <v>59800</v>
+      <c r="B45" s="2">
+        <v>81983</v>
       </c>
       <c r="C45">
         <v>563</v>
@@ -2702,8 +2799,8 @@
       <c r="A46" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="1">
-        <v>24376</v>
+      <c r="B46" s="2">
+        <v>33622</v>
       </c>
       <c r="C46">
         <v>564</v>
@@ -2716,8 +2813,8 @@
       <c r="A47" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="1">
-        <v>47975</v>
+      <c r="B47" s="2">
+        <v>74543</v>
       </c>
       <c r="C47">
         <v>565</v>
@@ -2730,8 +2827,8 @@
       <c r="A48" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="1">
-        <v>25429</v>
+      <c r="B48" s="2">
+        <v>13861</v>
       </c>
       <c r="C48">
         <v>566</v>
@@ -2744,8 +2841,8 @@
       <c r="A49" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="1">
-        <v>16400</v>
+      <c r="B49" s="2">
+        <v>19623</v>
       </c>
       <c r="C49">
         <v>567</v>
@@ -2758,8 +2855,8 @@
       <c r="A50" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="1">
-        <v>192852</v>
+      <c r="B50" s="2">
+        <v>229997</v>
       </c>
       <c r="C50">
         <v>550</v>
@@ -2772,8 +2869,8 @@
       <c r="A51" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="1">
-        <v>342623</v>
+      <c r="B51" s="2">
+        <v>427722</v>
       </c>
       <c r="C51">
         <v>551</v>
@@ -2786,8 +2883,8 @@
       <c r="A52" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="1">
-        <v>621711</v>
+      <c r="B52" s="2">
+        <v>819183</v>
       </c>
       <c r="C52">
         <v>553</v>
@@ -2800,8 +2897,8 @@
       <c r="A53" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="1">
-        <v>523938</v>
+      <c r="B53" s="2">
+        <v>629440</v>
       </c>
       <c r="C53">
         <v>554</v>
@@ -2814,8 +2911,8 @@
       <c r="A54" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="1">
-        <v>5080</v>
+      <c r="B54" s="2">
+        <v>6276</v>
       </c>
       <c r="C54">
         <v>556</v>
@@ -2829,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="1">
-        <v>27169</v>
+        <v>36883</v>
       </c>
       <c r="C55">
         <v>557</v>
@@ -2842,8 +2939,8 @@
       <c r="A56" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="1">
-        <v>39259</v>
+      <c r="B56" s="2">
+        <v>46169</v>
       </c>
       <c r="C56">
         <v>558</v>
@@ -2856,8 +2953,8 @@
       <c r="A57" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="1">
-        <v>122496</v>
+      <c r="B57" s="2">
+        <v>169283</v>
       </c>
       <c r="C57">
         <v>559</v>
@@ -2870,8 +2967,8 @@
       <c r="A58" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="1">
-        <v>60485</v>
+      <c r="B58" s="2">
+        <v>81472</v>
       </c>
       <c r="C58">
         <v>560</v>
@@ -2884,8 +2981,8 @@
       <c r="A59" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="1">
-        <v>20625</v>
+      <c r="B59" s="2">
+        <v>24102</v>
       </c>
       <c r="C59">
         <v>561</v>
@@ -2898,8 +2995,8 @@
       <c r="A60" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="1">
-        <v>51632</v>
+      <c r="B60" s="2">
+        <v>59897</v>
       </c>
       <c r="C60">
         <v>562</v>
@@ -2912,8 +3009,8 @@
       <c r="A61" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="1">
-        <v>74081</v>
+      <c r="B61" s="2">
+        <v>105916</v>
       </c>
       <c r="C61">
         <v>563</v>
@@ -2926,8 +3023,8 @@
       <c r="A62" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="1">
-        <v>50852</v>
+      <c r="B62" s="2">
+        <v>67957</v>
       </c>
       <c r="C62">
         <v>564</v>
@@ -2940,8 +3037,8 @@
       <c r="A63" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="1">
-        <v>50522</v>
+      <c r="B63" s="2">
+        <v>59174</v>
       </c>
       <c r="C63">
         <v>565</v>
@@ -2954,8 +3051,8 @@
       <c r="A64" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="1">
-        <v>15140</v>
+      <c r="B64" s="2">
+        <v>19431</v>
       </c>
       <c r="C64">
         <v>566</v>
@@ -2968,8 +3065,8 @@
       <c r="A65" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="1">
-        <v>18366</v>
+      <c r="B65" s="2">
+        <v>23727</v>
       </c>
       <c r="C65">
         <v>567</v>
@@ -2993,8 +3090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3053,228 +3150,228 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>30117</v>
+      <c r="B2" s="6">
+        <v>61545</v>
       </c>
       <c r="C2">
         <f>B2/P2</f>
-        <v>1.1287092868072897E-2</v>
-      </c>
-      <c r="D2">
-        <v>1837566</v>
+        <v>1.3777737084196984E-2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>3074482</v>
       </c>
       <c r="E2">
         <f>D2/P2</f>
-        <v>0.68867344334473024</v>
-      </c>
-      <c r="F2">
-        <v>28439</v>
+        <v>0.6882671974343344</v>
+      </c>
+      <c r="F2" s="6">
+        <v>49554</v>
       </c>
       <c r="G2">
         <f>F2/P2</f>
-        <v>1.0658220741611884E-2</v>
-      </c>
-      <c r="H2">
-        <v>25473</v>
+        <v>1.109337855992034E-2</v>
+      </c>
+      <c r="H2" s="6">
+        <v>48410</v>
       </c>
       <c r="I2">
         <f>H2/P2</f>
-        <v>9.5466386634930744E-3</v>
-      </c>
-      <c r="J2">
-        <v>43824</v>
+        <v>1.0837277638248046E-2</v>
+      </c>
+      <c r="J2" s="6">
+        <v>82133</v>
       </c>
       <c r="K2">
         <f>J2/P2</f>
-        <v>1.6424131150195125E-2</v>
-      </c>
-      <c r="L2">
-        <v>120009</v>
+        <v>1.8386658216530197E-2</v>
+      </c>
+      <c r="L2" s="6">
+        <v>217525</v>
       </c>
       <c r="M2">
         <f>L2/P2</f>
-        <v>4.497634983579242E-2</v>
-      </c>
-      <c r="N2">
-        <v>582841</v>
+        <v>4.8696112750669408E-2</v>
+      </c>
+      <c r="N2" s="6">
+        <v>933340</v>
       </c>
       <c r="O2">
         <f>N2/P2</f>
-        <v>0.21843412339610438</v>
-      </c>
-      <c r="P2">
-        <v>2668269</v>
+        <v>0.20894163831610063</v>
+      </c>
+      <c r="P2" s="6">
+        <v>4466989</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>84176</v>
+      <c r="B3" s="6">
+        <v>115605</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C5" si="0">B3/P3</f>
-        <v>1.9936908457577819E-2</v>
-      </c>
-      <c r="D3">
-        <v>2754588</v>
+        <v>1.9265339071134188E-2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3991164</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E5" si="1">D3/P3</f>
-        <v>0.65241837096491118</v>
-      </c>
-      <c r="F3">
-        <v>78452</v>
+        <v>0.66511939577444068</v>
+      </c>
+      <c r="F3" s="6">
+        <v>99752</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G5" si="2">F3/P3</f>
-        <v>1.8581191103329869E-2</v>
-      </c>
-      <c r="H3">
-        <v>72617</v>
+        <v>1.6623468734256974E-2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>95553</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I5" si="3">H3/P3</f>
-        <v>1.7199183632673545E-2</v>
-      </c>
-      <c r="J3">
-        <v>89804</v>
+        <v>1.5923713890091996E-2</v>
+      </c>
+      <c r="J3" s="6">
+        <v>108027</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K5" si="4">J3/P3</f>
-        <v>2.1269888413850961E-2</v>
-      </c>
-      <c r="L3">
-        <v>253179</v>
+        <v>1.800248072174571E-2</v>
+      </c>
+      <c r="L3" s="6">
+        <v>350696</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M5" si="5">L3/P3</f>
-        <v>5.9964913352750122E-2</v>
-      </c>
-      <c r="N3">
-        <v>889303</v>
+        <v>5.8442778001734141E-2</v>
+      </c>
+      <c r="N3" s="6">
+        <v>1239876</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O5" si="6">N3/P3</f>
-        <v>0.21062954407490647</v>
-      </c>
-      <c r="P3">
-        <v>4222119</v>
+        <v>0.20662282380659636</v>
+      </c>
+      <c r="P3" s="6">
+        <v>6000673</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>124933</v>
+      <c r="B4" s="6">
+        <v>173873</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>5.6356573866027673E-2</v>
-      </c>
-      <c r="D4">
-        <v>866561</v>
+        <v>6.1950831406644771E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1057162</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>0.39090079487340262</v>
-      </c>
-      <c r="F4">
-        <v>39259</v>
+        <v>0.37666610015075025</v>
+      </c>
+      <c r="F4" s="6">
+        <v>46169</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>1.7709514166844471E-2</v>
-      </c>
-      <c r="H4">
-        <v>32249</v>
+        <v>1.6449983236117065E-2</v>
+      </c>
+      <c r="H4" s="6">
+        <v>43159</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>1.4547342580467342E-2</v>
-      </c>
-      <c r="J4">
-        <v>84028</v>
+        <v>1.537752228741312E-2</v>
+      </c>
+      <c r="J4" s="6">
+        <v>102332</v>
       </c>
       <c r="K4">
         <f t="shared" si="4"/>
-        <v>3.7904558353794221E-2</v>
-      </c>
-      <c r="L4">
-        <v>255238</v>
+        <v>3.6460821861386022E-2</v>
+      </c>
+      <c r="L4" s="6">
+        <v>334754</v>
       </c>
       <c r="M4">
         <f t="shared" si="5"/>
-        <v>0.11513642672806362</v>
-      </c>
-      <c r="N4">
-        <v>814563</v>
+        <v>0.11927262206725577</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1049180</v>
       </c>
       <c r="O4">
         <f t="shared" si="6"/>
-        <v>0.36744478943140002</v>
-      </c>
-      <c r="P4">
-        <v>2216831</v>
+        <v>0.37382211899043299</v>
+      </c>
+      <c r="P4" s="6">
+        <v>2806629</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>35591</v>
+      <c r="B5" s="6">
+        <v>84431</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>9.8300300499359228E-2</v>
-      </c>
-      <c r="D5">
-        <v>112326</v>
+        <v>8.8378237208440583E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>302276</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>0.31023796897786027</v>
-      </c>
-      <c r="F5">
-        <v>6159</v>
+        <v>0.31640771790478123</v>
+      </c>
+      <c r="F5" s="6">
+        <v>13069</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>1.7010804719607583E-2</v>
-      </c>
-      <c r="H5">
-        <v>9249</v>
+        <v>1.3679989365009415E-2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>20159</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>2.5545207477131116E-2</v>
-      </c>
-      <c r="J5">
-        <v>13216</v>
+        <v>2.1101454251222344E-2</v>
+      </c>
+      <c r="J5" s="6">
+        <v>31521</v>
       </c>
       <c r="K5">
         <f t="shared" si="4"/>
-        <v>3.6501833929912943E-2</v>
-      </c>
-      <c r="L5">
-        <v>44733</v>
+        <v>3.2994639587915049E-2</v>
+      </c>
+      <c r="L5" s="6">
+        <v>124259</v>
       </c>
       <c r="M5">
         <f t="shared" si="5"/>
-        <v>0.123549980114013</v>
-      </c>
-      <c r="N5">
-        <v>140790</v>
+        <v>0.13006823770041356</v>
+      </c>
+      <c r="N5" s="6">
+        <v>379622</v>
       </c>
       <c r="O5">
         <f t="shared" si="6"/>
-        <v>0.38885390428211586</v>
-      </c>
-      <c r="P5">
-        <v>362064</v>
+        <v>0.39736972398221782</v>
+      </c>
+      <c r="P5" s="6">
+        <v>955337</v>
       </c>
     </row>
   </sheetData>
